--- a/Day2 (데이터 수집)/Product Price Data/2009~2018 감자가격 P.xlsx
+++ b/Day2 (데이터 수집)/Product Price Data/2009~2018 감자가격 P.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apppa_project\Agricultural-Product-Price-Prediction-AI\Day2 (데이터 수집)\Product Price Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Main" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -168,7 +168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -198,6 +198,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:RP11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="IG1" workbookViewId="0">
-      <selection activeCell="IN28" sqref="IN28"/>
+    <sheetView tabSelected="1" topLeftCell="NA1" workbookViewId="0">
+      <selection activeCell="NF5" sqref="NF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.2"/>
@@ -1742,363 +1748,363 @@
       </c>
       <c r="B2">
         <f>IFERROR(HLOOKUP(B$1,Data!1:2,2,1),C2)</f>
-        <v>41200</v>
+        <v>20556</v>
       </c>
       <c r="C2">
         <f>IFERROR(HLOOKUP(C$1,Data!1:2,2,1),D2)</f>
-        <v>41200</v>
+        <v>20556</v>
       </c>
       <c r="D2">
         <f>IFERROR(HLOOKUP(D$1,Data!1:2,2,1),E2)</f>
-        <v>41200</v>
+        <v>20556</v>
       </c>
       <c r="E2">
         <f>IFERROR(HLOOKUP(E$1,Data!1:2,2,1),F2)</f>
-        <v>41200</v>
+        <v>20556</v>
       </c>
       <c r="F2">
         <f>IFERROR(HLOOKUP(F$1,Data!1:2,2,1),G2)</f>
-        <v>41200</v>
+        <v>20889</v>
       </c>
       <c r="G2">
         <f>IFERROR(HLOOKUP(G$1,Data!1:2,2,1),H2)</f>
-        <v>41200</v>
+        <v>20889</v>
       </c>
       <c r="H2">
         <f>IFERROR(HLOOKUP(H$1,Data!1:2,2,1),I2)</f>
-        <v>41200</v>
+        <v>21000</v>
       </c>
       <c r="I2">
         <f>IFERROR(HLOOKUP(I$1,Data!1:2,2,1),J2)</f>
-        <v>41200</v>
+        <v>20778</v>
       </c>
       <c r="J2">
         <f>IFERROR(HLOOKUP(J$1,Data!1:2,2,1),K2)</f>
-        <v>41200</v>
+        <v>21111</v>
       </c>
       <c r="K2">
         <f>IFERROR(HLOOKUP(K$1,Data!1:2,2,1),L2)</f>
-        <v>41200</v>
+        <v>21111</v>
       </c>
       <c r="L2">
         <f>IFERROR(HLOOKUP(L$1,Data!1:2,2,1),M2)</f>
-        <v>41200</v>
+        <v>21111</v>
       </c>
       <c r="M2">
         <f>IFERROR(HLOOKUP(M$1,Data!1:2,2,1),N2)</f>
-        <v>41200</v>
+        <v>21333</v>
       </c>
       <c r="N2">
         <f>IFERROR(HLOOKUP(N$1,Data!1:2,2,1),O2)</f>
-        <v>41200</v>
+        <v>21667</v>
       </c>
       <c r="O2">
         <f>IFERROR(HLOOKUP(O$1,Data!1:2,2,1),P2)</f>
-        <v>41200</v>
+        <v>21778</v>
       </c>
       <c r="P2">
         <f>IFERROR(HLOOKUP(P$1,Data!1:2,2,1),Q2)</f>
-        <v>41200</v>
+        <v>22889</v>
       </c>
       <c r="Q2">
         <f>IFERROR(HLOOKUP(Q$1,Data!1:2,2,1),R2)</f>
-        <v>41200</v>
+        <v>23556</v>
       </c>
       <c r="R2">
         <f>IFERROR(HLOOKUP(R$1,Data!1:2,2,1),S2)</f>
-        <v>41200</v>
+        <v>23556</v>
       </c>
       <c r="S2">
         <f>IFERROR(HLOOKUP(S$1,Data!1:2,2,1),T2)</f>
-        <v>41200</v>
+        <v>23556</v>
       </c>
       <c r="T2">
         <f>IFERROR(HLOOKUP(T$1,Data!1:2,2,1),U2)</f>
-        <v>41200</v>
+        <v>23556</v>
       </c>
       <c r="U2">
         <f>IFERROR(HLOOKUP(U$1,Data!1:2,2,1),V2)</f>
-        <v>41200</v>
+        <v>23556</v>
       </c>
       <c r="V2">
         <f>IFERROR(HLOOKUP(V$1,Data!1:2,2,1),W2)</f>
-        <v>41200</v>
+        <v>23667</v>
       </c>
       <c r="W2">
         <f>IFERROR(HLOOKUP(W$1,Data!1:2,2,1),X2)</f>
-        <v>41200</v>
+        <v>24111</v>
       </c>
       <c r="X2">
         <f>IFERROR(HLOOKUP(X$1,Data!1:2,2,1),Y2)</f>
-        <v>41200</v>
+        <v>24111</v>
       </c>
       <c r="Y2">
         <f>IFERROR(HLOOKUP(Y$1,Data!1:2,2,1),Z2)</f>
-        <v>41200</v>
+        <v>24111</v>
       </c>
       <c r="Z2">
         <f>IFERROR(HLOOKUP(Z$1,Data!1:2,2,1),AA2)</f>
-        <v>41200</v>
+        <v>24111</v>
       </c>
       <c r="AA2">
         <f>IFERROR(HLOOKUP(AA$1,Data!1:2,2,1),AB2)</f>
-        <v>41200</v>
+        <v>24111</v>
       </c>
       <c r="AB2">
         <f>IFERROR(HLOOKUP(AB$1,Data!1:2,2,1),AC2)</f>
-        <v>41200</v>
+        <v>24111</v>
       </c>
       <c r="AC2">
         <f>IFERROR(HLOOKUP(AC$1,Data!1:2,2,1),AD2)</f>
-        <v>41200</v>
+        <v>24111</v>
       </c>
       <c r="AD2">
         <f>IFERROR(HLOOKUP(AD$1,Data!1:2,2,1),AE2)</f>
-        <v>41200</v>
+        <v>24111</v>
       </c>
       <c r="AE2">
         <f>IFERROR(HLOOKUP(AE$1,Data!1:2,2,1),AF2)</f>
-        <v>41200</v>
+        <v>24000</v>
       </c>
       <c r="AF2">
         <f>IFERROR(HLOOKUP(AF$1,Data!1:2,2,1),AG2)</f>
-        <v>41200</v>
+        <v>24000</v>
       </c>
       <c r="AG2">
         <f>IFERROR(HLOOKUP(AG$1,Data!1:2,2,1),AH2)</f>
-        <v>41200</v>
+        <v>24000</v>
       </c>
       <c r="AH2">
         <f>IFERROR(HLOOKUP(AH$1,Data!1:2,2,1),AI2)</f>
-        <v>41200</v>
+        <v>24889</v>
       </c>
       <c r="AI2">
         <f>IFERROR(HLOOKUP(AI$1,Data!1:2,2,1),AJ2)</f>
-        <v>41200</v>
+        <v>24889</v>
       </c>
       <c r="AJ2">
         <f>IFERROR(HLOOKUP(AJ$1,Data!1:2,2,1),AK2)</f>
-        <v>41000</v>
+        <v>25000</v>
       </c>
       <c r="AK2">
         <f>IFERROR(HLOOKUP(AK$1,Data!1:2,2,1),AL2)</f>
-        <v>41000</v>
+        <v>25667</v>
       </c>
       <c r="AL2">
         <f>IFERROR(HLOOKUP(AL$1,Data!1:2,2,1),AM2)</f>
-        <v>41000</v>
+        <v>26000</v>
       </c>
       <c r="AM2">
         <f>IFERROR(HLOOKUP(AM$1,Data!1:2,2,1),AN2)</f>
-        <v>41000</v>
+        <v>26000</v>
       </c>
       <c r="AN2">
         <f>IFERROR(HLOOKUP(AN$1,Data!1:2,2,1),AO2)</f>
-        <v>41000</v>
+        <v>26000</v>
       </c>
       <c r="AO2">
         <f>IFERROR(HLOOKUP(AO$1,Data!1:2,2,1),AP2)</f>
-        <v>41000</v>
+        <v>26111</v>
       </c>
       <c r="AP2">
         <f>IFERROR(HLOOKUP(AP$1,Data!1:2,2,1),AQ2)</f>
-        <v>41000</v>
+        <v>26444</v>
       </c>
       <c r="AQ2">
         <f>IFERROR(HLOOKUP(AQ$1,Data!1:2,2,1),AR2)</f>
-        <v>41000</v>
+        <v>27700</v>
       </c>
       <c r="AR2">
         <f>IFERROR(HLOOKUP(AR$1,Data!1:2,2,1),AS2)</f>
-        <v>41000</v>
+        <v>27900</v>
       </c>
       <c r="AS2">
         <f>IFERROR(HLOOKUP(AS$1,Data!1:2,2,1),AT2)</f>
-        <v>41000</v>
+        <v>27400</v>
       </c>
       <c r="AT2">
         <f>IFERROR(HLOOKUP(AT$1,Data!1:2,2,1),AU2)</f>
-        <v>41000</v>
+        <v>27400</v>
       </c>
       <c r="AU2">
         <f>IFERROR(HLOOKUP(AU$1,Data!1:2,2,1),AV2)</f>
-        <v>41000</v>
+        <v>27400</v>
       </c>
       <c r="AV2">
         <f>IFERROR(HLOOKUP(AV$1,Data!1:2,2,1),AW2)</f>
-        <v>41000</v>
+        <v>27100</v>
       </c>
       <c r="AW2">
         <f>IFERROR(HLOOKUP(AW$1,Data!1:2,2,1),AX2)</f>
-        <v>41000</v>
+        <v>27000</v>
       </c>
       <c r="AX2">
         <f>IFERROR(HLOOKUP(AX$1,Data!1:2,2,1),AY2)</f>
-        <v>41000</v>
+        <v>27000</v>
       </c>
       <c r="AY2">
         <f>IFERROR(HLOOKUP(AY$1,Data!1:2,2,1),AZ2)</f>
-        <v>41000</v>
+        <v>27400</v>
       </c>
       <c r="AZ2">
         <f>IFERROR(HLOOKUP(AZ$1,Data!1:2,2,1),BA2)</f>
-        <v>41000</v>
+        <v>27100</v>
       </c>
       <c r="BA2">
         <f>IFERROR(HLOOKUP(BA$1,Data!1:2,2,1),BB2)</f>
-        <v>41000</v>
+        <v>27100</v>
       </c>
       <c r="BB2">
         <f>IFERROR(HLOOKUP(BB$1,Data!1:2,2,1),BC2)</f>
-        <v>41000</v>
+        <v>27100</v>
       </c>
       <c r="BC2">
         <f>IFERROR(HLOOKUP(BC$1,Data!1:2,2,1),BD2)</f>
-        <v>41000</v>
+        <v>27500</v>
       </c>
       <c r="BD2">
         <f>IFERROR(HLOOKUP(BD$1,Data!1:2,2,1),BE2)</f>
-        <v>41000</v>
+        <v>27800</v>
       </c>
       <c r="BE2">
         <f>IFERROR(HLOOKUP(BE$1,Data!1:2,2,1),BF2)</f>
-        <v>41000</v>
+        <v>27800</v>
       </c>
       <c r="BF2">
         <f>IFERROR(HLOOKUP(BF$1,Data!1:2,2,1),BG2)</f>
-        <v>41000</v>
+        <v>29200</v>
       </c>
       <c r="BG2">
         <f>IFERROR(HLOOKUP(BG$1,Data!1:2,2,1),BH2)</f>
-        <v>41000</v>
+        <v>29900</v>
       </c>
       <c r="BH2">
         <f>IFERROR(HLOOKUP(BH$1,Data!1:2,2,1),BI2)</f>
-        <v>41000</v>
+        <v>29900</v>
       </c>
       <c r="BI2">
         <f>IFERROR(HLOOKUP(BI$1,Data!1:2,2,1),BJ2)</f>
-        <v>41000</v>
+        <v>29900</v>
       </c>
       <c r="BJ2">
         <f>IFERROR(HLOOKUP(BJ$1,Data!1:2,2,1),BK2)</f>
-        <v>41000</v>
+        <v>29300</v>
       </c>
       <c r="BK2">
         <f>IFERROR(HLOOKUP(BK$1,Data!1:2,2,1),BL2)</f>
-        <v>41000</v>
+        <v>29500</v>
       </c>
       <c r="BL2">
         <f>IFERROR(HLOOKUP(BL$1,Data!1:2,2,1),BM2)</f>
-        <v>41000</v>
+        <v>29300</v>
       </c>
       <c r="BM2">
         <f>IFERROR(HLOOKUP(BM$1,Data!1:2,2,1),BN2)</f>
-        <v>41000</v>
+        <v>29200</v>
       </c>
       <c r="BN2">
         <f>IFERROR(HLOOKUP(BN$1,Data!1:2,2,1),BO2)</f>
-        <v>41000</v>
+        <v>29200</v>
       </c>
       <c r="BO2">
         <f>IFERROR(HLOOKUP(BO$1,Data!1:2,2,1),BP2)</f>
-        <v>41000</v>
+        <v>29200</v>
       </c>
       <c r="BP2">
         <f>IFERROR(HLOOKUP(BP$1,Data!1:2,2,1),BQ2)</f>
-        <v>41000</v>
+        <v>29200</v>
       </c>
       <c r="BQ2">
         <f>IFERROR(HLOOKUP(BQ$1,Data!1:2,2,1),BR2)</f>
-        <v>41000</v>
+        <v>29500</v>
       </c>
       <c r="BR2">
         <f>IFERROR(HLOOKUP(BR$1,Data!1:2,2,1),BS2)</f>
-        <v>41000</v>
+        <v>29400</v>
       </c>
       <c r="BS2">
         <f>IFERROR(HLOOKUP(BS$1,Data!1:2,2,1),BT2)</f>
-        <v>41000</v>
+        <v>29400</v>
       </c>
       <c r="BT2">
         <f>IFERROR(HLOOKUP(BT$1,Data!1:2,2,1),BU2)</f>
-        <v>41000</v>
+        <v>29400</v>
       </c>
       <c r="BU2">
         <f>IFERROR(HLOOKUP(BU$1,Data!1:2,2,1),BV2)</f>
-        <v>41000</v>
+        <v>29400</v>
       </c>
       <c r="BV2">
         <f>IFERROR(HLOOKUP(BV$1,Data!1:2,2,1),BW2)</f>
-        <v>41000</v>
+        <v>29400</v>
       </c>
       <c r="BW2">
         <f>IFERROR(HLOOKUP(BW$1,Data!1:2,2,1),BX2)</f>
-        <v>41000</v>
+        <v>29400</v>
       </c>
       <c r="BX2">
         <f>IFERROR(HLOOKUP(BX$1,Data!1:2,2,1),BY2)</f>
-        <v>41000</v>
+        <v>29400</v>
       </c>
       <c r="BY2">
         <f>IFERROR(HLOOKUP(BY$1,Data!1:2,2,1),BZ2)</f>
-        <v>41000</v>
+        <v>29400</v>
       </c>
       <c r="BZ2">
         <f>IFERROR(HLOOKUP(BZ$1,Data!1:2,2,1),CA2)</f>
-        <v>41000</v>
+        <v>28900</v>
       </c>
       <c r="CA2">
         <f>IFERROR(HLOOKUP(CA$1,Data!1:2,2,1),CB2)</f>
-        <v>41000</v>
+        <v>29100</v>
       </c>
       <c r="CB2">
         <f>IFERROR(HLOOKUP(CB$1,Data!1:2,2,1),CC2)</f>
-        <v>41000</v>
+        <v>29100</v>
       </c>
       <c r="CC2">
         <f>IFERROR(HLOOKUP(CC$1,Data!1:2,2,1),CD2)</f>
-        <v>41000</v>
+        <v>29100</v>
       </c>
       <c r="CD2">
         <f>IFERROR(HLOOKUP(CD$1,Data!1:2,2,1),CE2)</f>
-        <v>41000</v>
+        <v>29100</v>
       </c>
       <c r="CE2">
         <f>IFERROR(HLOOKUP(CE$1,Data!1:2,2,1),CF2)</f>
-        <v>41000</v>
+        <v>29500</v>
       </c>
       <c r="CF2">
         <f>IFERROR(HLOOKUP(CF$1,Data!1:2,2,1),CG2)</f>
-        <v>41000</v>
+        <v>29700</v>
       </c>
       <c r="CG2">
         <f>IFERROR(HLOOKUP(CG$1,Data!1:2,2,1),CH2)</f>
-        <v>40800</v>
+        <v>29900</v>
       </c>
       <c r="CH2">
         <f>IFERROR(HLOOKUP(CH$1,Data!1:2,2,1),CI2)</f>
-        <v>40800</v>
+        <v>30100</v>
       </c>
       <c r="CI2">
         <f>IFERROR(HLOOKUP(CI$1,Data!1:2,2,1),CJ2)</f>
-        <v>40800</v>
+        <v>31500</v>
       </c>
       <c r="CJ2">
         <f>IFERROR(HLOOKUP(CJ$1,Data!1:2,2,1),CK2)</f>
-        <v>40800</v>
+        <v>31500</v>
       </c>
       <c r="CK2">
         <f>IFERROR(HLOOKUP(CK$1,Data!1:2,2,1),CL2)</f>
-        <v>40800</v>
+        <v>31500</v>
       </c>
       <c r="CL2">
         <f>IFERROR(HLOOKUP(CL$1,Data!1:2,2,1),CM2)</f>
-        <v>40800</v>
+        <v>33300</v>
       </c>
       <c r="CM2">
         <f>IFERROR(HLOOKUP(CM$1,Data!1:2,2,1),CN2)</f>
-        <v>40800</v>
+        <v>33900</v>
       </c>
       <c r="CN2">
         <f>IFERROR(HLOOKUP(CN$1,Data!1:2,2,1),CO2)</f>
@@ -16397,7 +16403,7 @@
   <dimension ref="A1:IT29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="IS24" sqref="IS24"/>
+      <selection activeCell="B1" sqref="B1:BJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="19.2"/>
@@ -16409,187 +16415,187 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="10">
         <v>43467</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="10">
         <v>43470</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="10">
         <v>43471</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="10">
         <v>43472</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="10">
         <v>43473</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="10">
         <v>43474</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="10">
         <v>43477</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="10">
         <v>43478</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="10">
         <v>43479</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="10">
         <v>43480</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="10">
         <v>43481</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="10">
         <v>43484</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="10">
         <v>43485</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="10">
         <v>43486</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1" s="10">
         <v>43487</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="10">
         <v>43488</v>
       </c>
-      <c r="R1" s="6">
+      <c r="R1" s="10">
         <v>43493</v>
       </c>
-      <c r="S1" s="6">
+      <c r="S1" s="10">
         <v>43494</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="10">
         <v>43495</v>
       </c>
-      <c r="U1" s="6">
+      <c r="U1" s="10">
         <v>43498</v>
       </c>
-      <c r="V1" s="6">
+      <c r="V1" s="10">
         <v>43499</v>
       </c>
-      <c r="W1" s="6">
+      <c r="W1" s="10">
         <v>43500</v>
       </c>
-      <c r="X1" s="6">
+      <c r="X1" s="10">
         <v>43501</v>
       </c>
-      <c r="Y1" s="6">
+      <c r="Y1" s="10">
         <v>43502</v>
       </c>
-      <c r="Z1" s="6">
+      <c r="Z1" s="10">
         <v>43505</v>
       </c>
-      <c r="AA1" s="6">
+      <c r="AA1" s="10">
         <v>43506</v>
       </c>
-      <c r="AB1" s="6">
+      <c r="AB1" s="10">
         <v>43507</v>
       </c>
-      <c r="AC1" s="6">
+      <c r="AC1" s="10">
         <v>43508</v>
       </c>
-      <c r="AD1" s="6">
+      <c r="AD1" s="10">
         <v>43509</v>
       </c>
-      <c r="AE1" s="6">
+      <c r="AE1" s="10">
         <v>43512</v>
       </c>
-      <c r="AF1" s="6">
+      <c r="AF1" s="10">
         <v>43513</v>
       </c>
-      <c r="AG1" s="6">
+      <c r="AG1" s="10">
         <v>43514</v>
       </c>
-      <c r="AH1" s="6">
+      <c r="AH1" s="10">
         <v>43515</v>
       </c>
-      <c r="AI1" s="6">
+      <c r="AI1" s="10">
         <v>43516</v>
       </c>
-      <c r="AJ1" s="6">
+      <c r="AJ1" s="10">
         <v>43519</v>
       </c>
-      <c r="AK1" s="6">
+      <c r="AK1" s="10">
         <v>43520</v>
       </c>
-      <c r="AL1" s="6">
+      <c r="AL1" s="10">
         <v>43521</v>
       </c>
-      <c r="AM1" s="6">
+      <c r="AM1" s="10">
         <v>43522</v>
       </c>
-      <c r="AN1" s="6">
+      <c r="AN1" s="10">
         <v>43523</v>
       </c>
-      <c r="AO1" s="6">
+      <c r="AO1" s="10">
         <v>43526</v>
       </c>
-      <c r="AP1" s="6">
+      <c r="AP1" s="10">
         <v>43527</v>
       </c>
-      <c r="AQ1" s="6">
+      <c r="AQ1" s="10">
         <v>43528</v>
       </c>
-      <c r="AR1" s="6">
+      <c r="AR1" s="10">
         <v>43529</v>
       </c>
-      <c r="AS1" s="6">
+      <c r="AS1" s="10">
         <v>43530</v>
       </c>
-      <c r="AT1" s="6">
+      <c r="AT1" s="10">
         <v>43533</v>
       </c>
-      <c r="AU1" s="6">
+      <c r="AU1" s="10">
         <v>43534</v>
       </c>
-      <c r="AV1" s="6">
+      <c r="AV1" s="10">
         <v>43535</v>
       </c>
-      <c r="AW1" s="6">
+      <c r="AW1" s="10">
         <v>43536</v>
       </c>
-      <c r="AX1" s="6">
+      <c r="AX1" s="10">
         <v>43537</v>
       </c>
-      <c r="AY1" s="6">
+      <c r="AY1" s="10">
         <v>43540</v>
       </c>
-      <c r="AZ1" s="6">
+      <c r="AZ1" s="10">
         <v>43541</v>
       </c>
-      <c r="BA1" s="6">
+      <c r="BA1" s="10">
         <v>43542</v>
       </c>
-      <c r="BB1" s="6">
+      <c r="BB1" s="10">
         <v>43543</v>
       </c>
-      <c r="BC1" s="6">
+      <c r="BC1" s="10">
         <v>43544</v>
       </c>
-      <c r="BD1" s="6">
+      <c r="BD1" s="10">
         <v>43547</v>
       </c>
-      <c r="BE1" s="6">
+      <c r="BE1" s="10">
         <v>43548</v>
       </c>
-      <c r="BF1" s="6">
+      <c r="BF1" s="10">
         <v>43549</v>
       </c>
-      <c r="BG1" s="6">
+      <c r="BG1" s="10">
         <v>43550</v>
       </c>
-      <c r="BH1" s="6">
+      <c r="BH1" s="10">
         <v>43551</v>
       </c>
-      <c r="BI1" s="6">
+      <c r="BI1" s="10">
         <v>43554</v>
       </c>
-      <c r="BJ1" s="6">
+      <c r="BJ1" s="10">
         <v>43555</v>
       </c>
       <c r="BK1" s="6">
@@ -17173,188 +17179,188 @@
       <c r="A2" s="3">
         <v>2009</v>
       </c>
-      <c r="B2" s="7">
-        <v>41200</v>
-      </c>
-      <c r="C2" s="7">
-        <v>41200</v>
-      </c>
-      <c r="D2" s="7">
-        <v>41200</v>
-      </c>
-      <c r="E2" s="7">
-        <v>41200</v>
-      </c>
-      <c r="F2" s="7">
-        <v>41200</v>
-      </c>
-      <c r="G2" s="7">
-        <v>41200</v>
-      </c>
-      <c r="H2" s="7">
-        <v>41200</v>
-      </c>
-      <c r="I2" s="7">
-        <v>41200</v>
-      </c>
-      <c r="J2" s="7">
-        <v>41200</v>
-      </c>
-      <c r="K2" s="7">
-        <v>41200</v>
-      </c>
-      <c r="L2" s="7">
-        <v>41200</v>
-      </c>
-      <c r="M2" s="7">
-        <v>41200</v>
-      </c>
-      <c r="N2" s="7">
-        <v>41200</v>
-      </c>
-      <c r="O2" s="7">
-        <v>41200</v>
-      </c>
-      <c r="P2" s="7">
-        <v>41200</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>41200</v>
-      </c>
-      <c r="R2" s="7">
-        <v>41200</v>
-      </c>
-      <c r="S2" s="7">
-        <v>41200</v>
-      </c>
-      <c r="T2" s="7">
-        <v>41200</v>
-      </c>
-      <c r="U2" s="7">
-        <v>41200</v>
-      </c>
-      <c r="V2" s="7">
-        <v>41200</v>
-      </c>
-      <c r="W2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="X2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="Z2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AA2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AB2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AC2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AD2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AE2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AF2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AG2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AH2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AI2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AJ2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AK2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AL2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AM2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AN2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AO2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AP2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AQ2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AR2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AS2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AT2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AU2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AV2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AW2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AX2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AY2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="AZ2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="BA2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="BB2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="BC2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="BD2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="BE2" s="7">
-        <v>41000</v>
-      </c>
-      <c r="BF2" s="7">
-        <v>40800</v>
-      </c>
-      <c r="BG2" s="7">
-        <v>40800</v>
-      </c>
-      <c r="BH2" s="7">
-        <v>40800</v>
-      </c>
-      <c r="BI2" s="7">
-        <v>40800</v>
-      </c>
-      <c r="BJ2" s="7">
-        <v>40800</v>
+      <c r="B2" s="11">
+        <v>20556</v>
+      </c>
+      <c r="C2" s="11">
+        <v>20889</v>
+      </c>
+      <c r="D2" s="11">
+        <v>20889</v>
+      </c>
+      <c r="E2" s="11">
+        <v>21000</v>
+      </c>
+      <c r="F2" s="11">
+        <v>20778</v>
+      </c>
+      <c r="G2" s="11">
+        <v>21111</v>
+      </c>
+      <c r="H2" s="11">
+        <v>21333</v>
+      </c>
+      <c r="I2" s="11">
+        <v>21667</v>
+      </c>
+      <c r="J2" s="11">
+        <v>21778</v>
+      </c>
+      <c r="K2" s="11">
+        <v>22889</v>
+      </c>
+      <c r="L2" s="11">
+        <v>23556</v>
+      </c>
+      <c r="M2" s="11">
+        <v>23556</v>
+      </c>
+      <c r="N2" s="11">
+        <v>23556</v>
+      </c>
+      <c r="O2" s="11">
+        <v>23667</v>
+      </c>
+      <c r="P2" s="11">
+        <v>24111</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>24111</v>
+      </c>
+      <c r="R2" s="11">
+        <v>24111</v>
+      </c>
+      <c r="S2" s="11">
+        <v>24111</v>
+      </c>
+      <c r="T2" s="11">
+        <v>24000</v>
+      </c>
+      <c r="U2" s="11">
+        <v>24889</v>
+      </c>
+      <c r="V2" s="11">
+        <v>24889</v>
+      </c>
+      <c r="W2" s="11">
+        <v>25000</v>
+      </c>
+      <c r="X2" s="11">
+        <v>25667</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>26000</v>
+      </c>
+      <c r="Z2" s="11">
+        <v>26111</v>
+      </c>
+      <c r="AA2" s="11">
+        <v>26444</v>
+      </c>
+      <c r="AB2" s="11">
+        <v>27700</v>
+      </c>
+      <c r="AC2" s="11">
+        <v>27900</v>
+      </c>
+      <c r="AD2" s="11">
+        <v>27400</v>
+      </c>
+      <c r="AE2" s="11">
+        <v>27100</v>
+      </c>
+      <c r="AF2" s="11">
+        <v>27000</v>
+      </c>
+      <c r="AG2" s="11">
+        <v>27000</v>
+      </c>
+      <c r="AH2" s="11">
+        <v>27400</v>
+      </c>
+      <c r="AI2" s="11">
+        <v>27100</v>
+      </c>
+      <c r="AJ2" s="11">
+        <v>27500</v>
+      </c>
+      <c r="AK2" s="11">
+        <v>27800</v>
+      </c>
+      <c r="AL2" s="11">
+        <v>27800</v>
+      </c>
+      <c r="AM2" s="11">
+        <v>29200</v>
+      </c>
+      <c r="AN2" s="11">
+        <v>29900</v>
+      </c>
+      <c r="AO2" s="11">
+        <v>29300</v>
+      </c>
+      <c r="AP2" s="11">
+        <v>29500</v>
+      </c>
+      <c r="AQ2" s="11">
+        <v>29300</v>
+      </c>
+      <c r="AR2" s="11">
+        <v>29200</v>
+      </c>
+      <c r="AS2" s="11">
+        <v>29200</v>
+      </c>
+      <c r="AT2" s="11">
+        <v>29500</v>
+      </c>
+      <c r="AU2" s="11">
+        <v>29400</v>
+      </c>
+      <c r="AV2" s="11">
+        <v>29400</v>
+      </c>
+      <c r="AW2" s="11">
+        <v>29400</v>
+      </c>
+      <c r="AX2" s="11">
+        <v>29400</v>
+      </c>
+      <c r="AY2" s="11">
+        <v>29400</v>
+      </c>
+      <c r="AZ2" s="11">
+        <v>29400</v>
+      </c>
+      <c r="BA2" s="11">
+        <v>28900</v>
+      </c>
+      <c r="BB2" s="11">
+        <v>29100</v>
+      </c>
+      <c r="BC2" s="11">
+        <v>29100</v>
+      </c>
+      <c r="BD2" s="11">
+        <v>29500</v>
+      </c>
+      <c r="BE2" s="11">
+        <v>29700</v>
+      </c>
+      <c r="BF2" s="11">
+        <v>29900</v>
+      </c>
+      <c r="BG2" s="11">
+        <v>30100</v>
+      </c>
+      <c r="BH2" s="11">
+        <v>31500</v>
+      </c>
+      <c r="BI2" s="11">
+        <v>33300</v>
+      </c>
+      <c r="BJ2" s="11">
+        <v>33900</v>
       </c>
       <c r="BK2" s="7">
         <v>33900</v>
